--- a/client/src/assets/templates/question_import.xlsx
+++ b/client/src/assets/templates/question_import.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TruongCaoDangNghe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>group_code</t>
   </si>
@@ -39,50 +38,71 @@
     <t>option</t>
   </si>
   <si>
-    <t>explanation</t>
-  </si>
-  <si>
     <t>MATH</t>
   </si>
   <si>
-    <t>Samle single choice</t>
-  </si>
-  <si>
-    <t>2+2= ?</t>
-  </si>
-  <si>
-    <t>ext</t>
-  </si>
-  <si>
-    <t>LIT</t>
-  </si>
-  <si>
-    <t>Sample open end</t>
-  </si>
-  <si>
-    <t>Tel me about you</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Six</t>
+    <t xml:space="preserve">Thuộc tính đặc trưng của vật chất theo quan niệm Mác- Lênin </t>
+  </si>
+  <si>
+    <t>Chọn đáp án đúng</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Do có sự phân hóa giai cấp và đấu tranh giai cấp</t>
+  </si>
+  <si>
+    <t>Do có sự phân công lao động trong xã hội.</t>
+  </si>
+  <si>
+    <t>Do con người trong xã hội phải hợp sức lại để đắp đê, chống bão lụt, đào kênh làm thủy lợi và chống giặc ngoại xâm</t>
+  </si>
+  <si>
+    <t>Do ý chí của con người trong xã hội</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xã hội cộng sản chủ nghĩa là hình thái kinh tế xã hội  chưa có nhà nước </t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Đúng</t>
+  </si>
+  <si>
+    <t>Sai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,18 +121,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Currency [0] 2" xfId="5"/>
+    <cellStyle name="Currency 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Normal" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,114 +472,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="F3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
